--- a/data/trans_bre/P24_1_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P24_1_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,8 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +544,16 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +580,32 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +620,8 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,5</t>
+          <t>15,19</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>14,5</t>
+          <t>23,12</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8,31</t>
+          <t>18,68</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7,21</t>
+          <t>21,09</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>18,95%</t>
+          <t>-9,27</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>78,58%</t>
+          <t>103,56%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>35,96%</t>
+          <t>116,04%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>33,72%</t>
+          <t>86,11%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>130,57%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-15,39%</t>
         </is>
       </c>
     </row>
@@ -668,42 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,84; 17,55</t>
+          <t>-3,48; 30,81</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,53; 26,91</t>
+          <t>3,41; 44,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,63; 21,08</t>
+          <t>-1,41; 37,39</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,79; 19,97</t>
+          <t>1,91; 39,27</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-26,75; 107,0</t>
+          <t>-44,07; 17,97</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,22; 219,39</t>
+          <t>-16,16; 508,78</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-16,04; 131,95</t>
+          <t>7,02; 427,64</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-26,09; 136,47</t>
+          <t>-6,61; 312,62</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>4,03; 574,62</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-58,55; 45,71</t>
         </is>
       </c>
     </row>
@@ -720,42 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>24,57</t>
+          <t>25,83</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>10,81</t>
+          <t>8,42</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>12,08</t>
+          <t>14,23</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>18,69</t>
+          <t>17,47</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>160,76%</t>
+          <t>13,58</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>44,63%</t>
+          <t>165,59%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>62,76%</t>
+          <t>27,57%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>130,53%</t>
+          <t>66,99%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>96,25%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>49,23%</t>
         </is>
       </c>
     </row>
@@ -768,42 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>17,11; 31,57</t>
+          <t>16,36; 35,44</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,84; 19,81</t>
+          <t>-7,16; 19,29</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,24; 19,11</t>
+          <t>3,85; 23,01</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11,67; 26,07</t>
+          <t>7,5; 27,16</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>87,57; 255,31</t>
+          <t>-1,98; 24,99</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,08; 99,25</t>
+          <t>78,36; 311,28</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>16,1; 122,81</t>
+          <t>-18,15; 79,92</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>63,41; 244,99</t>
+          <t>13,14; 141,59</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>28,71; 201,08</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-10,45; 121,19</t>
         </is>
       </c>
     </row>
@@ -820,42 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>9,42</t>
+          <t>11,12</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>9,01</t>
+          <t>2,96</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,01</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>12,85</t>
+          <t>7,65</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>42,33%</t>
+          <t>9,26</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>39,99%</t>
+          <t>48,66%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>34,63%</t>
+          <t>11,44%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>69,38%</t>
+          <t>4,89%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>45,28%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>49,66%</t>
         </is>
       </c>
     </row>
@@ -868,49 +934,59 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,49; 18,39</t>
+          <t>-0,68; 21,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 17,68</t>
+          <t>-8,14; 13,55</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 16,21</t>
+          <t>-11,79; 11,42</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,41; 20,5</t>
+          <t>-3,33; 16,09</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,53; 104,5</t>
+          <t>-1,75; 19,17</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 98,47</t>
+          <t>-3,25; 124,28</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,95; 86,89</t>
+          <t>-25,54; 67,14</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>22,35; 140,09</t>
+          <t>-35,09; 61,13</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-14,69; 126,78</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-8,09; 146,1</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>15,82</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>10,79</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>10,17</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>14,87</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>82,87%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>47,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>48,19%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>88,97%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -968,52 +1054,190 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,06; 20,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,62; 16,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,16; 15,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,04; 20,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>46,52; 128,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>17,3; 84,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>21,83; 89,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>51,66; 143,21</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>18,55</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>8,07</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>9,68</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>14,03</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>8,17</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>101,85%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>29,6%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>42,28%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>80,54%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>27,14%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>11,77; 25,54</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-0,82; 15,19</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>2,42; 16,34</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>7,32; 20,37</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-5,67; 17,37</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>53,71; 171,86</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-3,08; 66,45</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>7,68; 83,51</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>35,57; 146,47</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-15,32; 73,18</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P24_1_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P24_1_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -634,359 +643,235 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>15,19</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>23,12</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>18,68</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>21,09</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-9,27</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>103,56%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>116,04%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>86,11%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>130,57%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>-15,39%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>15.18709486447987</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>21.49217102880054</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>18.15869744958579</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>20.31411620578211</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-13.17846247618228</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>1.035551307580474</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>1.075574523680936</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.8423829944806274</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>1.268500958882151</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>-0.2188864733638353</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-3,48; 30,81</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>3,41; 44,32</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-1,41; 37,39</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>1,91; 39,27</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-44,07; 17,97</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-16,16; 508,78</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>7,02; 427,64</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-6,61; 312,62</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>4,03; 574,62</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-58,55; 45,71</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-3.482852635398742</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>1.580490676961096</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-1.91522382640113</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>0.8575411791093202</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-47.57502408048742</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.1616186935576956</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>0.0003824022857624601</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.08675816048425851</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>0.005742014171653712</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.6384317919680266</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>30.81206319125265</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>42.56127904356352</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>37.69182643455353</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>38.23034095861881</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>14.05169007142343</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>5.087798733167591</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>3.858009149450182</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>3.045094003052703</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>5.422729254556487</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>0.3753215088071636</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>25,83</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>8,42</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>14,23</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>17,47</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>13,58</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>165,59%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>27,57%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>66,99%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>96,25%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>49,23%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>16,36; 35,44</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-7,16; 19,29</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>3,85; 23,01</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>7,5; 27,16</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-1,98; 24,99</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>78,36; 311,28</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-18,15; 79,92</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>13,14; 141,59</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>28,71; 201,08</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-10,45; 121,19</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>25.83086723322304</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>9.466778677249376</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>14.1375177731464</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>17.982836870939</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>14.04577241530573</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>1.655914674960991</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.3154906054895791</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.6846385220186252</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>1.029421670873699</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.5127623001246406</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>11,12</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>2,96</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1,25</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>7,65</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>9,26</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>48,66%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>11,44%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>4,89%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>45,28%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>49,66%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>16.36061650167429</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-5.209707481850987</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>3.532299922504864</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>8.05519957722499</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-0.8484857124372414</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>0.7835984430157973</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.1491546586184729</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>0.1333952565972949</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>0.3281282183921251</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.1037096084286046</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-0,68; 21,8</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-8,14; 13,55</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-11,79; 11,42</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-3,33; 16,09</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-1,75; 19,17</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-3,25; 124,28</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-25,54; 67,14</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-35,09; 61,13</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-14,69; 126,78</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-8,09; 146,1</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>35.44085669356674</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>20.25704550176768</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>22.79867933152491</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>27.38771665128137</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>25.41768369481224</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>3.112782930525725</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.8528399784096301</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>1.418355143664238</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>2.126786272789932</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>1.210218285577323</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -994,252 +879,247 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>11.11518395072196</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>2.011483089087235</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-0.5702877320837518</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>6.93883968238862</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>8.885552271022789</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.486608377422529</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.07539497852296152</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.02140751579730404</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.4003042831711507</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>0.4786798815004989</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-0.6833603792111718</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-10.43461603681999</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-14.6639258175344</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-4.237436995023645</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-2.029731330521758</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.03254158967644447</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.3107498513862934</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.4086091110281326</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.188172775077889</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.09652446791605071</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>21.79979424681251</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>13.05149617404058</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>9.611143080372948</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>15.75495614050077</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>19.22150470885892</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>1.242764501553716</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.6337896094697119</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.4837607408582322</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>1.198440782506204</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>1.40604514504777</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>18,55</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>8,07</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>9,68</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>14,03</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>8,17</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>101,85%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>29,6%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>42,28%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>80,54%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>27,14%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>11,77; 25,54</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-0,82; 15,19</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>2,42; 16,34</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>7,32; 20,37</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-5,67; 17,37</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>53,71; 171,86</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-3,08; 66,45</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>7,68; 83,51</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>35,57; 146,47</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>-15,32; 73,18</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>18.54971076472503</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>8.036812319391483</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>9.011288323230076</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>14.04219612921812</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>7.687653439554709</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>1.018465978145313</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.2940858230631299</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.392278008256266</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.8154572554799897</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.2575575471255256</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>11.76928112709797</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.8682846949760799</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>1.707461038077792</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>7.418129018749411</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-6.571100918746303</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>0.5371409494582557</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.03391226027314885</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.05813258870787878</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>0.3426115946663209</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.1714636001480322</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>25.5380225293131</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>15.09078411027846</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>15.80823936793687</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>20.48386350930679</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>16.69457045499119</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>1.718574983472114</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.6474503904984614</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.7842070584604511</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>1.477104217182566</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.7183515591071189</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
